--- a/demo/均值回复策略/回测分析.xlsx
+++ b/demo/均值回复策略/回测分析.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="basic_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="backtest" sheetId="3" r:id="rId2"/>
     <sheet name="策略参数" sheetId="2" r:id="rId3"/>
+    <sheet name="具体分析" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="95">
   <si>
     <t>策略收益</t>
   </si>
@@ -238,6 +239,142 @@
   </si>
   <si>
     <t>Benchmark Volatility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比1和5，可以知道持仓检测可以提升策略效果，所以策略要带上持仓检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进措施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加持仓检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4是为了对比有无交易成本的情况下，策略的回测效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7号策略的差异只是6号没有交易成本，所以应当以7号策略作为基准策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照单变量控制法的要求，对7号策略进行改进的时候，只改动一个参数，其余参数保持不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10还是为了测试交易成本的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回测研究也要按照基本法，2333，绕了太多冤枉路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以做的事情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头寸管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止盈止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号策略开始，是做了ATR分配初始头寸和加仓的头寸；加仓按照盈利比例均匀加仓；有止盈，无止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于基准策略的思考，我认为仓位太低，故就想着加仓，简单的用ATR分配仓位，效果并不理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比了7号和18号策略交割单，发现并不是仓位不足的问题，反而是仓位已经在一个高点了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何刻画多空双向的仓位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(多头仓位+空头仓位)/total_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在如果就是从基准策略出发，要做哪些事情呢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先第一点刻画出准确的仓位图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后做止盈止损；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头寸如何分配的更加合理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头的时候，是用多头仓位的总价值/总价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果保障金不变的情况下，总价值上升；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我现在直接用1 - (可用的保障金/总价值)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用保障金/总价值则会下降，那么这个时候刻画的仓位就会下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧，花了两天的时间，总算知道了现在仓位其实很高，出奇的高；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何让头寸的分配的更合理呢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做浮动止损吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在持仓的时候，放弃一些亏损的头寸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先尝试下只做浮动止损的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧，终于用log找到了那 个 bug了，果然是因为订单没有成交造成的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在基准策略的基础上，尝试过 只按盈利比例加仓、只进行浮动止损 和 浮动止损+按盈利比例加仓的模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值回复做浮动止损的效果不是很好，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测统计套利，或者这种配对交易就是需要持仓一段时间?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +407,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,12 +455,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -297,12 +482,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -662,13 +857,13 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:T3 A5:T5 A7:T7 A9:T9 A11:T11 A13:T13 A15:T15 A17:T17 A19:T19 A26:T26 A29:T29 A32:T32 A35:T35 A38:T38 A41:T41 A44:T44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -730,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>-0.26619999999999999</v>
       </c>
@@ -854,7 +1049,7 @@
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -916,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>-0.14660000000000001</v>
       </c>
@@ -978,7 +1173,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>8.0399999999999999E-2</v>
       </c>
@@ -1102,7 +1297,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>-0.187</v>
       </c>
@@ -1226,7 +1421,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.75800000000000001</v>
       </c>
@@ -1350,7 +1545,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>-1.1719999999999999</v>
       </c>
@@ -1474,7 +1669,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.48399999999999999</v>
       </c>
@@ -1598,7 +1793,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.72599999999999998</v>
       </c>
@@ -1722,7 +1917,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +1979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>0.27250000000000002</v>
       </c>
@@ -1846,7 +2041,7 @@
         <v>0.10488</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1970,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +2227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0.49199999999999999</v>
       </c>
@@ -2156,7 +2351,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2839</v>
       </c>
@@ -2280,7 +2475,7 @@
         <v>7664</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2342,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3026</v>
       </c>
@@ -2404,7 +2599,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2466,7 +2661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>-1.5589999999999999</v>
       </c>
@@ -2528,7 +2723,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>-1.8660000000000001</v>
       </c>
@@ -2652,7 +2847,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2714,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0.159</v>
       </c>
@@ -2776,7 +2971,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2838,7 +3033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0.17199999999999999</v>
       </c>
@@ -2910,31 +3105,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.73046875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2990,7 +3185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3046,7 +3241,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3102,7 +3297,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3158,7 +3353,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3214,7 +3409,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3270,7 +3465,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3326,7 +3521,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3382,7 +3577,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3438,7 +3633,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3494,7 +3689,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3550,7 +3745,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3606,7 +3801,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3662,7 +3857,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3718,7 +3913,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3774,7 +3969,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3830,7 +4025,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3886,7 +4081,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3942,7 +4137,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3998,7 +4193,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4054,7 +4249,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4124,24 +4319,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4197,7 +4392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4238,7 +4433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4279,7 +4474,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4320,7 +4515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4361,7 +4556,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4402,7 +4597,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4446,7 +4641,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4490,7 +4685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4531,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4572,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4613,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4666,7 +4861,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4713,7 +4908,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4760,7 +4955,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4807,7 +5002,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4854,7 +5049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4901,7 +5096,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4945,7 +5140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4989,7 +5184,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5033,7 +5228,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5081,4 +5276,1168 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="A12:R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43100</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.08</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O3" s="6">
+        <v>43100</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O4" s="6">
+        <v>43100</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O5" s="6">
+        <v>43281</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="11">
+        <v>42370</v>
+      </c>
+      <c r="O6" s="11">
+        <v>43100</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="8">
+        <v>42370</v>
+      </c>
+      <c r="O7" s="8">
+        <v>43281</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="14">
+        <v>42370</v>
+      </c>
+      <c r="O8" s="14">
+        <v>43281</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O9" s="6">
+        <v>43100</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O10" s="6">
+        <v>43100</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O11" s="6">
+        <v>43281</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>1E-3</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>0.03</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>1E-3</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>1E-4</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="2">
+        <v>42370</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43281</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="6">
+        <v>42370</v>
+      </c>
+      <c r="O21" s="6">
+        <v>43281</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/demo/均值回复策略/回测分析.xlsx
+++ b/demo/均值回复策略/回测分析.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="basic_data" sheetId="1" r:id="rId1"/>
     <sheet name="backtest" sheetId="3" r:id="rId2"/>
-    <sheet name="策略参数" sheetId="2" r:id="rId3"/>
+    <sheet name="策略参数" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="具体分析" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="96">
   <si>
     <t>策略收益</t>
   </si>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>猜测统计套利，或者这种配对交易就是需要持仓一段时间?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checklist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -498,6 +502,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -857,13 +863,13 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:T3 A5:T5 A7:T7 A9:T9 A11:T11 A13:T13 A15:T15 A17:T17 A19:T19 A26:T26 A29:T29 A32:T32 A35:T35 A38:T38 A41:T41 A44:T44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -925,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-0.26619999999999999</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-0.14660000000000001</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8.0399999999999999E-2</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.187</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.75800000000000001</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-1.1719999999999999</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.48399999999999999</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.72599999999999998</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.27250000000000002</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>0.10488</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.49199999999999999</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2839</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>7664</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3026</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1.5589999999999999</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-1.8660000000000001</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.159</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.17199999999999999</v>
       </c>
@@ -3105,31 +3111,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3521,63 +3527,63 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="15">
         <v>0.1439</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="15">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="15">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="15">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="15">
         <v>0.01</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="15">
         <v>0.58399999999999996</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="16">
         <v>1.5660000000000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="15">
         <v>4.1029999999999997E-2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="15">
         <v>0.48399999999999999</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="13">
         <v>5593</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="13">
         <v>3989</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="16">
         <v>0.74299999999999999</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="16">
         <v>0.46200000000000002</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="15">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="15">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4319,24 +4325,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4515,7 +4521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4808,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4908,7 +4914,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5140,7 +5146,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5184,7 +5190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5280,23 +5286,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="A12:R20"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5352,7 +5358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5961,7 +5967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6237,7 +6243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>70</v>
       </c>
@@ -6296,7 +6302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>71</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>72</v>
       </c>
@@ -6315,12 +6321,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>76</v>
       </c>
@@ -6328,32 +6334,32 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>83</v>
       </c>
@@ -6361,42 +6367,42 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>86</v>
       </c>
@@ -6404,12 +6410,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>88</v>
       </c>
@@ -6417,12 +6423,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>90</v>
       </c>
@@ -6430,9 +6436,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/demo/均值回复策略/回测分析.xlsx
+++ b/demo/均值回复策略/回测分析.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="basic_data" sheetId="1" r:id="rId1"/>
     <sheet name="backtest" sheetId="3" r:id="rId2"/>
     <sheet name="策略参数" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="具体分析" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="159">
   <si>
     <t>策略收益</t>
   </si>
@@ -380,6 +382,209 @@
   <si>
     <t>checklist</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.基于上一点，均值回复策略的  最大回测区间 能否作为趋势的判断方法；比如最大回撤区间结束了，是否意味着一个趋势的结束，或者反转，或者进入震荡行情；</t>
+  </si>
+  <si>
+    <t>一、基准策略模板</t>
+  </si>
+  <si>
+    <t>1. 基准策略：</t>
+  </si>
+  <si>
+    <t>1.1.股票池候选：过去3个月(60个交易日)表现最好的10%和表现最差的10%的股票；调仓周期为1个月(20个交易日);</t>
+  </si>
+  <si>
+    <t>1.2.入场逻辑：日K级别，调仓日，做多股票池表现最差的，和做空股票池中表现最好的；</t>
+  </si>
+  <si>
+    <t>1.3.头寸规模确定方法：均仓方案</t>
+  </si>
+  <si>
+    <t>1.4.测试环境：回测时间设定为16.6.1~18.6.30；初始资本1000万；</t>
+  </si>
+  <si>
+    <t>1.5.其他设定：为简化操作；采用保证金账户，买入股票时，设定融资利率为0，融券卖出时，设定融券利率为0.1；实际操作中，如需进融资融券操作，需要担保物；如若和真实情况一样，可以设定现金账户有500万现金；剩下500万以担保物的方式存入到融资融券账户中，然后进行卖空操作；</t>
+  </si>
+  <si>
+    <t>2.构建基准策略的一些细节</t>
+  </si>
+  <si>
+    <t>2.1. 基于课件的策略，增加了对表现最好的股票进行做空的操作；</t>
+  </si>
+  <si>
+    <t>2.2. 在调仓日，需将前一期的持仓清空，然后买入新一期股票池的股票；</t>
+  </si>
+  <si>
+    <t>但是存在上一期股票池仍留在当期中的可能，如全部卖出，再买入，则会造成不必要的交易成本；</t>
+  </si>
+  <si>
+    <t>特别是融券成本高，所以需要对当期的股票池做检测；</t>
+  </si>
+  <si>
+    <t>2.3. 虽然基准策略没有使用加仓和退出的组件，为了后续改进，加上了这部分代码；</t>
+  </si>
+  <si>
+    <t>并基于上周的加仓和止盈止损代码做了bug修复:</t>
+  </si>
+  <si>
+    <t>bug表现为得到last_entry_price为None,主要是因为在记录股票买卖的价格和时间时，是在盘中进行的；因为下单之后并不能保证交易一定能成交，比如跌停这种；所以会造成，我下了卖单，然后将股票的last_entry_price重置成了None,而实际上，股票跌停，还在你的持仓中；</t>
+  </si>
+  <si>
+    <t>进入到止损加仓等环节时，就会报错；</t>
+  </si>
+  <si>
+    <t>修复bug方式：在收盘后，遍历交易记录，分别录入多空仓位的最后进入时间和价格；</t>
+  </si>
+  <si>
+    <t>2.4.仓位图修复，在单边多头策略中，聚宽中使用p.positions_value / p.total_value代表仓位是没有问题的；但是在多空双向开仓的情况下，p.positions_value就会出问题，因为这个代表了持仓的总价值，用的多头的仓位-空头的仓位；得到仓位曲线图就会特别的低；后来通过核实交易记录发现了这个问题，并不是仓位真的低(事实上是非常的高)；</t>
+  </si>
+  <si>
+    <t>解决方法 ： 使用 1 - p.available_margin/p.total_value代表仓位；</t>
+  </si>
+  <si>
+    <t>二、基准策略的改进</t>
+  </si>
+  <si>
+    <t>很尴尬的一点，基准策略似乎就是一个local minima:</t>
+  </si>
+  <si>
+    <t>年化收益：5.7%； 最大回撤：4.1%； 胜率：58.4%；回测两年半的时间，盈利次数5600次，亏损4000次左右；sharpe：0.47； IR：0.46.</t>
+  </si>
+  <si>
+    <t>1.改进目标：</t>
+  </si>
+  <si>
+    <t>把胜率提高到60%以上，在回撤增加不多的情况下，尽量提高年化收益.</t>
+  </si>
+  <si>
+    <t>尽量使用单变量控制法进行改进</t>
+  </si>
+  <si>
+    <t>2.尝试过的方法：</t>
+  </si>
+  <si>
+    <t>1.波动率分配初始头寸；</t>
+  </si>
+  <si>
+    <t>2.均仓的情况，按盈利比例均匀加仓，加仓头寸使用均仓方式</t>
+  </si>
+  <si>
+    <t>3.均仓的情况下，使用浮动止损的方式；</t>
+  </si>
+  <si>
+    <t>4.均匀加仓+浮动止损，加仓方式也是均匀加仓</t>
+  </si>
+  <si>
+    <t>波动率分配头寸，风险系数很难调，对于本例中，RISK_RATIO在1e-5级别,大概能控制住整个策略收益波动性，但是收益很难调成正的；而且使用波动率分配头寸的情况下，策略的收益会围绕着0轴上下穿插，由于回测时间较短，不确定这是否是一个规律；</t>
+  </si>
+  <si>
+    <t>均仓的情况下，由于标的够多，其实很多时候已经是9成仓位左右的样子，所以加仓似乎效果并不好，至少在两年半内的回测情况不如不加仓；</t>
+  </si>
+  <si>
+    <t>加入了浮动止损，仓位曲线会变成上下起伏的曲线，即在调仓日，仓位保持在最高，然后仓位逐渐下降；因为大部分时间仓位过低，导致策略收益很难有起色；</t>
+  </si>
+  <si>
+    <t>其他的一些尝试：</t>
+  </si>
+  <si>
+    <t>只做多表现最好的股票；</t>
+  </si>
+  <si>
+    <t>同时做多表现最好的和做空表现最差的股票；</t>
+  </si>
+  <si>
+    <t>一些思考：</t>
+  </si>
+  <si>
+    <t>1.均值回复策略，逻辑的本质还是基于【统计意义】上【价格会回归】；</t>
+  </si>
+  <si>
+    <t>2.单只股票不具备统计意义，需要一组股票来进行操作；</t>
+  </si>
+  <si>
+    <t>3.波动率分配头寸，会破坏因价格恢复而带来的套利机会；因为均仓分配的时候，每只股票的权重是一样的；一组股票会形成一个统一的回复的动作；而波动率分配头寸，每只股票权重不一样，使得一组股票不具备统计意义了；(纯粹个人的想法，未有严谨的数学理论依据)</t>
+  </si>
+  <si>
+    <t>4.均值回复型策略，不适合趋势型的行情；从基准策略的收益曲线可以看到，整个策略的收益几乎来自于回测期间的前10个月，最大回撤区间发生在16.10.20至18.2.6期间；是一个相当长的时间，这期间，沪深300是一个缓慢向上的趋势；但是这个策略本质上具备对冲的性质，能帮助我们熬过极端行情（以上这句话待验证）</t>
+  </si>
+  <si>
+    <t>6.能进行这么多次试验，并验证我们的想法(策略逻辑)，这个是主观交易绝对做不到的一点；</t>
+  </si>
+  <si>
+    <t>2005-01-24,2007-05-25</t>
+  </si>
+  <si>
+    <t>策略名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-11-16,2018-06-29</t>
+  </si>
+  <si>
+    <t>2016-01-11,2018-06-26</t>
+  </si>
+  <si>
+    <t>基准策略 回测时间:05/01/05 -- 18/10/18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-04,2018-06-19</t>
+  </si>
+  <si>
+    <t>做多表现最好股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动止损 -- 按盈利比例加仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按盈利比例加仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做多表现最好/做空表现最差股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-04,2018-05-21</t>
+  </si>
+  <si>
+    <t>仅做多表现最差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATR分配头寸 -- risk rate = 0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATR分配头寸 -- risk rate = 0.0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATR分配头寸 -- risk rate = 0.00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATR分配头寸 -- risk rate = 0.0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.能进行这么多次试验，并验证我们的想法(策略逻辑)，这个是主观交易绝对做不到的一点；</t>
   </si>
 </sst>
 </file>
@@ -389,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +655,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -486,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -504,13 +717,277 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -589,6 +1066,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:S27" totalsRowShown="0">
+  <autoFilter ref="A1:S27"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="回测id"/>
+    <tableColumn id="2" name="策略名称"/>
+    <tableColumn id="3" name="策略收益" dataDxfId="13" dataCellStyle="百分比"/>
+    <tableColumn id="4" name="策略年化收益" dataDxfId="12" dataCellStyle="百分比"/>
+    <tableColumn id="5" name="基准收益" dataDxfId="11" dataCellStyle="百分比"/>
+    <tableColumn id="6" name="Alpha" dataDxfId="10" dataCellStyle="百分比"/>
+    <tableColumn id="7" name="Beta" dataDxfId="9" dataCellStyle="百分比"/>
+    <tableColumn id="8" name="Sharpe" dataDxfId="8" dataCellStyle="千位分隔"/>
+    <tableColumn id="9" name="胜率" dataDxfId="7" dataCellStyle="百分比"/>
+    <tableColumn id="10" name="盈亏比" dataDxfId="6" dataCellStyle="千位分隔"/>
+    <tableColumn id="11" name="最大回撤 " dataDxfId="5" dataCellStyle="百分比"/>
+    <tableColumn id="12" name="最大回撤区间"/>
+    <tableColumn id="13" name="日胜率" dataDxfId="4" dataCellStyle="百分比"/>
+    <tableColumn id="14" name="盈利次数"/>
+    <tableColumn id="15" name="亏损次数"/>
+    <tableColumn id="16" name="Sortino" dataDxfId="3" dataCellStyle="千位分隔"/>
+    <tableColumn id="17" name="Information Ratio" dataDxfId="2" dataCellStyle="千位分隔"/>
+    <tableColumn id="18" name="Algorithm Volatility" dataDxfId="1" dataCellStyle="百分比"/>
+    <tableColumn id="19" name="Benchmark Volatility" dataDxfId="0" dataCellStyle="百分比"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,22 +1359,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:T3 A5:T5 A7:T7 A9:T9 A11:T11 A13:T13 A15:T15 A17:T17 A19:T19 A26:T26 A29:T29 A32:T32 A35:T35 A38:T38 A41:T41 A44:T44"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115:Q120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -931,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>-0.26619999999999999</v>
       </c>
@@ -1055,7 +1560,7 @@
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>-0.14660000000000001</v>
       </c>
@@ -1179,7 +1684,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>8.0399999999999999E-2</v>
       </c>
@@ -1303,7 +1808,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>-0.187</v>
       </c>
@@ -1427,7 +1932,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.75800000000000001</v>
       </c>
@@ -1551,7 +2056,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +2118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>-1.1719999999999999</v>
       </c>
@@ -1675,7 +2180,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1737,7 +2242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.48399999999999999</v>
       </c>
@@ -1799,7 +2304,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +2366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.72599999999999998</v>
       </c>
@@ -1923,7 +2428,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>0.27250000000000002</v>
       </c>
@@ -2047,7 +2552,7 @@
         <v>0.10488</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2171,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2295,7 +2800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0.49199999999999999</v>
       </c>
@@ -2357,7 +2862,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2419,7 +2924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2839</v>
       </c>
@@ -2481,7 +2986,7 @@
         <v>7664</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2543,7 +3048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3026</v>
       </c>
@@ -2605,7 +3110,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2667,7 +3172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>-1.5589999999999999</v>
       </c>
@@ -2729,7 +3234,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +3296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>-1.8660000000000001</v>
       </c>
@@ -2853,7 +3358,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +3420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0.159</v>
       </c>
@@ -2977,7 +3482,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3039,7 +3544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0.17199999999999999</v>
       </c>
@@ -3098,6 +3603,1384 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="T44">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-6.5500000000000003E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-0.15640000000000001</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-0.3417</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-0.20030000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5.04E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-6.7699999999999996E-2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>2.0339</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="B56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C56">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="D56">
+        <v>-0.108</v>
+      </c>
+      <c r="E56">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="F56">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>-2E-3</v>
+      </c>
+      <c r="B58">
+        <v>-0.03</v>
+      </c>
+      <c r="C58">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D58">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F58">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="B60">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C60">
+        <v>-2.7090000000000001</v>
+      </c>
+      <c r="D60">
+        <v>-2.4649999999999999</v>
+      </c>
+      <c r="E60">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="F60">
+        <v>-3.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="B62">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C62">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D62">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E62">
+        <v>0.31</v>
+      </c>
+      <c r="F62">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="B64">
+        <v>1.536</v>
+      </c>
+      <c r="C64">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D64">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E64">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F64">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>0.15526000000000001</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7.8469999999999998E-2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.1885</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.34534999999999999</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.20035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="B73">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C73">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D73">
+        <v>0.435</v>
+      </c>
+      <c r="E73">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F73">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>21363</v>
+      </c>
+      <c r="B76">
+        <v>5347</v>
+      </c>
+      <c r="C76">
+        <v>5941</v>
+      </c>
+      <c r="D76">
+        <v>5214</v>
+      </c>
+      <c r="E76">
+        <v>1314</v>
+      </c>
+      <c r="F76">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>15845</v>
+      </c>
+      <c r="B79">
+        <v>4214</v>
+      </c>
+      <c r="C79">
+        <v>9080</v>
+      </c>
+      <c r="D79">
+        <v>10034</v>
+      </c>
+      <c r="E79">
+        <v>2925</v>
+      </c>
+      <c r="F79">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="B82">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C82">
+        <v>-3.03</v>
+      </c>
+      <c r="D82">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="E82">
+        <v>-2.081</v>
+      </c>
+      <c r="F82">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>-0.221</v>
+      </c>
+      <c r="B85">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C85">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D85">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="E85">
+        <v>-1.161</v>
+      </c>
+      <c r="F85">
+        <v>-0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="B88">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C88">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D88">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F88">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="B91">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C91">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D91">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E91">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="B96">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="C96">
+        <v>-6.5500000000000003E-2</v>
+      </c>
+      <c r="D96">
+        <v>-0.15640000000000001</v>
+      </c>
+      <c r="E96">
+        <v>-0.3417</v>
+      </c>
+      <c r="F96">
+        <v>-0.20030000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="B97">
+        <v>5.04E-2</v>
+      </c>
+      <c r="C97">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="D97">
+        <v>-6.7699999999999996E-2</v>
+      </c>
+      <c r="E97">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="F97">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>2.0339</v>
+      </c>
+      <c r="B98">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="C98">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D98">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E98">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F98">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="B99">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C99">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="D99">
+        <v>-0.108</v>
+      </c>
+      <c r="E99">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="F99">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>-2E-3</v>
+      </c>
+      <c r="B100">
+        <v>-0.03</v>
+      </c>
+      <c r="C100">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D100">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F100">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="B101">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C101">
+        <v>-2.7090000000000001</v>
+      </c>
+      <c r="D101">
+        <v>-2.4649999999999999</v>
+      </c>
+      <c r="E101">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="F101">
+        <v>-3.65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="B102">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C102">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D102">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E102">
+        <v>0.31</v>
+      </c>
+      <c r="F102">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="B103">
+        <v>1.536</v>
+      </c>
+      <c r="C103">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D103">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="E103">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>0.15526000000000001</v>
+      </c>
+      <c r="B104">
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="C104">
+        <v>7.8469999999999998E-2</v>
+      </c>
+      <c r="D104">
+        <v>0.1885</v>
+      </c>
+      <c r="E104">
+        <v>0.34534999999999999</v>
+      </c>
+      <c r="F104">
+        <v>0.20035</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="B106">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C106">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D106">
+        <v>0.435</v>
+      </c>
+      <c r="E106">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F106">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>21363</v>
+      </c>
+      <c r="B107">
+        <v>5347</v>
+      </c>
+      <c r="C107">
+        <v>5941</v>
+      </c>
+      <c r="D107">
+        <v>5214</v>
+      </c>
+      <c r="E107">
+        <v>1314</v>
+      </c>
+      <c r="F107">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>15845</v>
+      </c>
+      <c r="B108">
+        <v>4214</v>
+      </c>
+      <c r="C108">
+        <v>9080</v>
+      </c>
+      <c r="D108">
+        <v>10034</v>
+      </c>
+      <c r="E108">
+        <v>2925</v>
+      </c>
+      <c r="F108">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="B109">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C109">
+        <v>-3.03</v>
+      </c>
+      <c r="D109">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="E109">
+        <v>-2.081</v>
+      </c>
+      <c r="F109">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>-0.221</v>
+      </c>
+      <c r="B110">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C110">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D110">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="E110">
+        <v>-1.161</v>
+      </c>
+      <c r="F110">
+        <v>-0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="B111">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C111">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D111">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E111">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F111">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="B112">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C112">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D112">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E112">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F112">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="B115">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="C115">
+        <v>2.0339</v>
+      </c>
+      <c r="D115">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E115">
+        <v>-2E-3</v>
+      </c>
+      <c r="F115">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="G115">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H115">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="I115">
+        <v>0.15526000000000001</v>
+      </c>
+      <c r="J115" t="s">
+        <v>139</v>
+      </c>
+      <c r="K115">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="L115">
+        <v>21363</v>
+      </c>
+      <c r="M115">
+        <v>15845</v>
+      </c>
+      <c r="N115">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="O115">
+        <v>-0.221</v>
+      </c>
+      <c r="P115">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q115">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="B116">
+        <v>5.04E-2</v>
+      </c>
+      <c r="C116">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D116">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E116">
+        <v>-0.03</v>
+      </c>
+      <c r="F116">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G116">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H116">
+        <v>1.536</v>
+      </c>
+      <c r="I116">
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>39</v>
+      </c>
+      <c r="K116">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="L116">
+        <v>5347</v>
+      </c>
+      <c r="M116">
+        <v>4214</v>
+      </c>
+      <c r="N116">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="O116">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="P116">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q116">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>-6.5500000000000003E-2</v>
+      </c>
+      <c r="B117">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="C117">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D117">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="E117">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F117">
+        <v>-2.7090000000000001</v>
+      </c>
+      <c r="G117">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H117">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I117">
+        <v>7.8469999999999998E-2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>143</v>
+      </c>
+      <c r="K117">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="L117">
+        <v>5941</v>
+      </c>
+      <c r="M117">
+        <v>9080</v>
+      </c>
+      <c r="N117">
+        <v>-3.03</v>
+      </c>
+      <c r="O117">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="P117">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q117">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>-0.15640000000000001</v>
+      </c>
+      <c r="B118">
+        <v>-6.7699999999999996E-2</v>
+      </c>
+      <c r="C118">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D118">
+        <v>-0.108</v>
+      </c>
+      <c r="E118">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F118">
+        <v>-2.4649999999999999</v>
+      </c>
+      <c r="G118">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H118">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I118">
+        <v>0.1885</v>
+      </c>
+      <c r="J118" t="s">
+        <v>144</v>
+      </c>
+      <c r="K118">
+        <v>0.435</v>
+      </c>
+      <c r="L118">
+        <v>5214</v>
+      </c>
+      <c r="M118">
+        <v>10034</v>
+      </c>
+      <c r="N118">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="O118">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="P118">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q118">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>-0.3417</v>
+      </c>
+      <c r="B119">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="C119">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D119">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="E119">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F119">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="G119">
+        <v>0.31</v>
+      </c>
+      <c r="H119">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="I119">
+        <v>0.34534999999999999</v>
+      </c>
+      <c r="J119" t="s">
+        <v>146</v>
+      </c>
+      <c r="K119">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L119">
+        <v>1314</v>
+      </c>
+      <c r="M119">
+        <v>2925</v>
+      </c>
+      <c r="N119">
+        <v>-2.081</v>
+      </c>
+      <c r="O119">
+        <v>-1.161</v>
+      </c>
+      <c r="P119">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q119">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>-0.20030000000000001</v>
+      </c>
+      <c r="B120">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="C120">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D120">
+        <v>-0.127</v>
+      </c>
+      <c r="E120">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F120">
+        <v>-3.65</v>
+      </c>
+      <c r="G120">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H120">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="I120">
+        <v>0.20035</v>
+      </c>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+      <c r="K120">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="L120">
+        <v>3874</v>
+      </c>
+      <c r="M120">
+        <v>5504</v>
+      </c>
+      <c r="N120">
+        <v>-5.89</v>
+      </c>
+      <c r="O120">
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="P120">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q120">
         <v>0.17499999999999999</v>
       </c>
     </row>
@@ -3109,1211 +4992,1593 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="18.19921875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.46484375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>-0.26619999999999999</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>-0.187</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>0.75800000000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>-1.1719999999999999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.27250000000000002</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>0.49199999999999999</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2839</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3026</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>-1.5589999999999999</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>-1.8660000000000001</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>0.159</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>-0.161</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>-0.126</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.73099999999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.23882999999999999</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2827</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3008</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>-1.054</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>-1.2529999999999999</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>0.16</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>-0.1772</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>-9.5100000000000004E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>-0.84299999999999997</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.72799999999999998</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0.23905000000000001</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>0.50600000000000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2830</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3013</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>-1.131</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>-1.345</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>0.16</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>-0.21690000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>-9.5799999999999996E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>0.65300000000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>-0.91800000000000004</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>0.47299999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.71099999999999997</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>0.23905000000000001</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>0.50900000000000001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3572</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3984</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>-1.214</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>-0.63400000000000001</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="3">
         <v>-0.25469999999999998</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>-0.13980000000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>-0.18</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>-1.218</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0.5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.64800000000000002</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0.26056000000000001</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>0.47699999999999998</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2027</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2031</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>-1.643</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>-1.855</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>0.16059999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>0.01</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.64300000000000002</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>0.58399999999999996</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>1.5609999999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>3.5560000000000001E-2</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5593</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3990</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>0.498</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.1439</v>
       </c>
-      <c r="C8" s="15">
+      <c r="D8" s="15">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="E8" s="15">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>0.01</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="15">
         <v>0.58399999999999996</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="16">
         <v>1.5660000000000001</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <v>4.1029999999999997E-2</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="15">
         <v>0.48399999999999999</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="13">
         <v>5593</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="13">
         <v>3989</v>
       </c>
-      <c r="O8" s="16">
+      <c r="P8" s="16">
         <v>0.74299999999999999</v>
       </c>
-      <c r="P8" s="16">
+      <c r="Q8" s="16">
         <v>0.46200000000000002</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="R8" s="15">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="R8" s="15">
+      <c r="S8" s="15">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>-0.1623</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>-8.6699999999999999E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>-0.127</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>-0.85499999999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>0.499</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>0.65500000000000003</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>0.23882999999999999</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>0.5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2027</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2032</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>-1.161</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>-1.306</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>-0.17080000000000001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>-9.1499999999999998E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>-0.88700000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>0.499</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>0.65500000000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>0.23905000000000001</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>0.5</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2027</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2032</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>-1.2110000000000001</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>-1.3560000000000001</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>-0.20419999999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>-8.9800000000000005E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>-0.09</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>0.61299999999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>-0.94499999999999995</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>0.49099999999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.66300000000000003</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>0.23905000000000001</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>0.504</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2573</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2668</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>-1.2749999999999999</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>-0.59499999999999997</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>-0.1701</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>-7.3899999999999993E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>-1.538</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>0.317</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.72299999999999998</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>0.17233999999999999</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1719</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3712</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>-1.9990000000000001</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>-0.2356</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>-0.1047</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>-0.97799999999999998</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>0.49</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>0.63</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>0.24853</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>0.50900000000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2065</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2153</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>-1.2809999999999999</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>-0.71599999999999997</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.0339</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-2E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.15526000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N14">
+        <v>21363</v>
+      </c>
+      <c r="O14">
+        <v>15845</v>
+      </c>
+      <c r="P14" s="4">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-0.221</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3">
         <v>-0.2671</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D15" s="3">
         <v>-0.1201</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E15" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F15" s="3">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G15" s="3">
         <v>0.65100000000000002</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H15" s="4">
         <v>-1.0580000000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I15" s="3">
         <v>0.54400000000000004</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J15" s="4">
         <v>0.55600000000000005</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K15" s="3">
         <v>0.29070000000000001</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L15" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M15" s="3">
         <v>0.48299999999999998</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>621</v>
       </c>
-      <c r="N14">
+      <c r="O15">
         <v>521</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P15" s="4">
         <v>-1.466</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q15" s="4">
         <v>-0.81399999999999995</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R15" s="3">
         <v>0.151</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S15" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="3">
         <v>-0.22650000000000001</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D16" s="3">
         <v>-0.1004</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E16" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F16" s="3">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G16" s="3">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H16" s="4">
         <v>-1.0409999999999999</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I16" s="3">
         <v>0.52200000000000002</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J16" s="4">
         <v>0.65300000000000002</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K16" s="3">
         <v>0.23749000000000001</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L16" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M16" s="3">
         <v>0.50600000000000001</v>
       </c>
-      <c r="M15">
+      <c r="N16">
         <v>3305</v>
       </c>
-      <c r="N15">
+      <c r="O16">
         <v>3031</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P16" s="4">
         <v>-1.365</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q16" s="4">
         <v>-0.68400000000000005</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R16" s="3">
         <v>0.13500000000000001</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S16" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3">
         <v>-3.7100000000000001E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D17" s="3">
         <v>-1.54E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E17" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F17" s="3">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G17" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H17" s="4">
         <v>-6.5209999999999999</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I17" s="3">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J17" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K17" s="3">
         <v>3.9359999999999999E-2</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L17" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M17" s="3">
         <v>0.45600000000000002</v>
       </c>
-      <c r="M16">
+      <c r="N17">
         <v>3327</v>
       </c>
-      <c r="N16">
+      <c r="O17">
         <v>2917</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P17" s="4">
         <v>-7.4950000000000001</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q17" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R17" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S17" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="3">
         <v>-0.1079</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D18" s="3">
         <v>-4.5900000000000003E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E18" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F18" s="3">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G18" s="3">
         <v>0.21299999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H18" s="4">
         <v>-1.53</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I18" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J18" s="4">
         <v>0.92</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K18" s="3">
         <v>0.13819999999999999</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L18" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M18" s="3">
         <v>0.48099999999999998</v>
       </c>
-      <c r="M17">
+      <c r="N18">
         <v>5123</v>
       </c>
-      <c r="N17">
+      <c r="O18">
         <v>3859</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P18" s="4">
         <v>-1.919</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q18" s="4">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R18" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S18" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C19" s="3">
         <v>0.12670000000000001</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D19" s="3">
         <v>5.04E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E19" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F19" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G19" s="3">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H19" s="4">
         <v>0.255</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I19" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J19" s="4">
         <v>1.5349999999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K19" s="3">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L19" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M19" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="M18">
+      <c r="N19">
         <v>5353</v>
       </c>
-      <c r="N18">
+      <c r="O19">
         <v>4206</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P19" s="4">
         <v>0.38600000000000001</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q19" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R19" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S19" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C20" s="3">
         <v>-0.1222</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D20" s="3">
         <v>-5.2200000000000003E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E20" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F20" s="3">
         <v>-6.2E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G20" s="3">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H20" s="4">
         <v>-0.82499999999999996</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I20" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J20" s="4">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K20" s="3">
         <v>0.22325</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L20" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M20" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M19">
+      <c r="N20">
         <v>3943</v>
       </c>
-      <c r="N19">
+      <c r="O20">
         <v>3329</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P20" s="4">
         <v>-1.1819999999999999</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q20" s="4">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R20" s="3">
         <v>0.112</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S20" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C21" s="3">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D21" s="3">
         <v>3.78E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E21" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F21" s="3">
         <v>-2E-3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G21" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H21" s="4">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I21" s="3">
         <v>0.58299999999999996</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J21" s="4">
         <v>1.5640000000000001</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K21" s="3">
         <v>3.5409999999999997E-2</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L21" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M21" s="3">
         <v>0.48299999999999998</v>
       </c>
-      <c r="M20">
+      <c r="N21">
         <v>5498</v>
       </c>
-      <c r="N20">
+      <c r="O21">
         <v>3940</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P21" s="4">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q21" s="4">
         <v>0.35599999999999998</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R21" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S21" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C22" s="3">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D22" s="3">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E22" s="3">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F22" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G22" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H22" s="4">
         <v>-2.3E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I22" s="3">
         <v>0.52800000000000002</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J22" s="4">
         <v>1.2170000000000001</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K22" s="3">
         <v>0.10488</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L22" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M22" s="3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M21">
+      <c r="N22">
         <v>7664</v>
       </c>
-      <c r="N21">
+      <c r="O22">
         <v>6839</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P22" s="4">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q22" s="4">
         <v>0.38500000000000001</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R22" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S22" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5.04E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1.536</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="N23">
+        <v>5347</v>
+      </c>
+      <c r="O23">
+        <v>4214</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="R23" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-6.5500000000000003E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-2.7090000000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7.8469999999999998E-2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N24">
+        <v>5941</v>
+      </c>
+      <c r="O24">
+        <v>9080</v>
+      </c>
+      <c r="P24" s="4">
+        <v>-3.03</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-0.15640000000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-6.7699999999999996E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-0.108</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-2.4649999999999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.1885</v>
+      </c>
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.435</v>
+      </c>
+      <c r="N25">
+        <v>5214</v>
+      </c>
+      <c r="O25">
+        <v>10034</v>
+      </c>
+      <c r="P25" s="4">
+        <v>-2.9340000000000002</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="R25" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-0.3417</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-1.5089999999999999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.34534999999999999</v>
+      </c>
+      <c r="L26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N26">
+        <v>1314</v>
+      </c>
+      <c r="O26">
+        <v>2925</v>
+      </c>
+      <c r="P26" s="4">
+        <v>-2.081</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>-1.161</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-0.20030000000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-0.127</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-3.65</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.20035</v>
+      </c>
+      <c r="L27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="N27">
+        <v>3874</v>
+      </c>
+      <c r="O27">
+        <v>5504</v>
+      </c>
+      <c r="P27" s="4">
+        <v>-5.89</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="R27" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S27" s="3">
         <v>0.17499999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4328,21 +6593,21 @@
       <selection pane="bottomRight" activeCell="I12" sqref="I12:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4398,7 +6663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4439,7 +6704,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4480,7 +6745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4521,7 +6786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4562,7 +6827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4603,7 +6868,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4647,7 +6912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4691,7 +6956,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4732,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4773,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4814,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4867,7 +7132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4914,7 +7179,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4961,7 +7226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5008,7 +7273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5055,7 +7320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5102,7 +7367,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5146,7 +7411,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5190,7 +7455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5234,7 +7499,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5286,23 +7551,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A15:XFD17"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5358,7 +7624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5399,7 +7665,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5445,7 +7711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5491,7 +7757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5537,7 +7803,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -5583,7 +7849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -5631,7 +7897,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -5679,7 +7945,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5725,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5771,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5817,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5870,7 +8136,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5920,7 +8186,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5967,7 +8233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6014,7 +8280,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6061,7 +8327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6108,7 +8374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6155,7 +8421,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6199,7 +8465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6243,7 +8509,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6291,158 +8557,214 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="14">
+        <v>38357</v>
+      </c>
+      <c r="O22" s="14">
+        <v>43391</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
         <v>70</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G29" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G30" t="s">
         <v>63</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I28" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
         <v>76</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I32" t="s">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I34" t="s">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
         <v>83</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I38" t="s">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I40" t="s">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I42" t="s">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I43" t="s">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I44" t="s">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I45" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>88</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I53" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
         <v>90</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I55" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I54" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I58" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6451,4 +8773,467 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>